--- a/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/doubao_726_evaluated.xlsx
+++ b/code/data_process/2.Calculation_indicator_code/人工标注与API接口跑出来的课堂场景类别评估/已评估数据/doubao_726_evaluated.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -481,7 +481,11 @@
           <t>同学们，请抓紧时间进入教室，</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr"/>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“同学们，请抓紧时间进入教室”只是老师提醒学生进入教室，没有明确开展课堂活动的指令和具体内容。
@@ -513,7 +517,11 @@
           <t>声音要小亮啊，同学们好，请坐真棒。</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr"/>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，没有体现出老师发起开展课堂活动的指令，也没有与任何课堂活动相关的特征短语或特征短句。
@@ -545,7 +553,11 @@
           <t>今天小猴子呀要到我们搬来做客了，我来跟他打打招呼猴子，猴子猴子昨天在写作业的时候呀，</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师主要在讲述关于小猴子的情景，但未发出明确的课堂活动指令。
@@ -572,7 +584,11 @@
           <t>背的错别字了，读明白了吗？好，现在用眼睛看，用心记住这个字，猴猴猴子猴子猴子猴子。哎，</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr"/>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“好，现在用眼睛看，用心记住这个字”体现出老师发起了一个开展课堂活动的指令。首先，“现在”体现出老师要求立即执行该活动。进一步地，“用眼睛看，用心记住这个字”体现出老师要求学生个体通过观察和思考来记住这个字，这种活动是每个学生独自完成的。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -580,7 +596,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -599,7 +615,11 @@
           <t>它分别种了什么树呢？谁来说说，于凯，你来说说看，你慢讲啊。嗯，然后呢，愿你送我幸福啊，杏树，</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr"/>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“谁来说说，于凯，你来说说看”体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展活动，“于凯”可能是被邀请学生的名字。进一步地，“你来说说看”体现出该学生被要求用话语来回答老师提出的问题。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -612,7 +632,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -631,7 +651,11 @@
           <t>什么什么也不什么，</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr"/>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：这段待分析文本无法体现出老师发起了任何开展课堂活动的指令，不包含与课堂活动相关的有效信息。
@@ -658,7 +682,11 @@
           <t>你能不能连起来把这句话来说一说，投资中了，</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr"/>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“你能不能连起来把这句话来说一说”体现出老师发起了一个开展课堂活动的指令，其中，“你”体现出老师邀请一名特定的学生参与活动，“连起来说一说”体现出该学生被要求用话语来表达。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -666,7 +694,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -685,7 +713,11 @@
           <t>用一句话把这个故事哎就讲讲出来了，来，我们一起来试不看猴子，种了梨树杏树桃树桃树。</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr"/>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“用一句话把这个故事哎就讲讲出来了，来，我们一起来试”体现出老师发起了一个开展课堂活动的指令。首先，“我们一起来试”中的“我们”体现出这个课堂活动是老师邀请全体学生共同参与的。进一步地，“用一句话把这个故事讲出来”体现出该活动是概括、总结活动，因为总结活动是个体经过大脑思考后才能得出结论的活动，这种思考活动无法集体整齐划一地开展，只能由每一个学生独自完成 。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -693,7 +725,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -712,7 +744,11 @@
           <t>小朋友们真能干好。那我们来看看哦，他为什么什么时候都没种成呢，</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr"/>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“小朋友们真能干好”是对小朋友们的夸赞。“那我们来看看哦，他为什么什么时候都没种成呢”体现出老师发起了一个开展课堂活动的指令，“我们来看看”表明这个课堂活动是由全体学生共同参与的，“他为什么什么时候都没种成呢”体现出老师要求学生共同思考这个问题，思考活动是个体的大脑活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -720,7 +756,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -739,7 +775,11 @@
           <t>张老师困了。好，你来读猴子，种了一棵梨树苗，</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr"/>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“你来读猴子，种了一棵梨树苗”体现出老师发起了一个开展课堂活动的指令，邀请一位学生开展朗读活动。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种朗读活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -747,7 +787,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -766,7 +806,11 @@
           <t>天天都去浇水施肥，说明他怎么样，晴朗。对，非常晴朗，猴子是不是很好？你们看这个猴子种树啊，它有一个动作的过程，你找到了动作了吗？还有哪些动作？好，那就好了，</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr"/>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“你找到了动作了吗？还有哪些动作？”体现出老师发起了一个开展课堂活动的指令。首先，“你”可能是指全体学生，要求学生思考猴子种树过程中的动作。思考活动是个体的大脑活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -779,7 +823,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -798,7 +842,11 @@
           <t>重，所以先说重好的，然后呢水嗯交，</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr"/>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：这段话语内容不完整，无法明确老师的意图和课堂活动指令。
@@ -830,7 +878,11 @@
           <t>然后等着将来可以吃梨子了。好，我们按照这个顺序啊，把故事的开头自己在下面讲一讲，好不好？开，</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr"/>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“我们按照这个顺序啊，把故事的开头自己在下面讲一讲”体现出老师发起了一个开展课堂活动的指令。首先，“我们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“自己在下面讲一讲”体现出老师要求每一位学生独自讲述故事开头。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -838,7 +890,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15">
@@ -857,7 +909,11 @@
           <t>刘若涵猴子中了一个树苗，</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr"/>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：这段待分析文本不完整，也没有体现出老师发起课堂活动的指令或相关信息。
@@ -889,7 +945,11 @@
           <t>是不是好非常好。那接下来我要加大难度了，唉，没有提示你还能不能把刚刚的故事开头讲给我们听，赶紧猴子种了一棵梨树苗，天天浇水施肥，</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr"/>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“那接下来我要加大难度了，唉，没有提示你还能不能把刚刚的故事开头讲给我们听”体现出老师发起了一个开展课堂活动的指令。首先，“没有提示你还能不能”体现出老师邀请一位学生参与活动。进一步地，“把刚刚的故事开头讲给我们听”体现出该学生被要求用话语来讲述故事开头。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -902,7 +962,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -921,7 +981,11 @@
           <t>故事的开头好讲给我们听啊，非常好。这时候谁朗诵，</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“故事的开头好讲给我们听啊，非常好。”体现出老师对之前的讲述表示肯定。“这时候谁朗诵”体现出老师发起了一个开展课堂活动的指令，“谁”体现出老师邀请一名学生参与朗诵活动。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -929,7 +993,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -948,7 +1012,11 @@
           <t>你说当谁告诉我是谁来了？这时候一只乌鸦哦，</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr"/>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师的表述没有明确体现出开展课堂活动的指令，无法判断具体的课堂活动类别和状态。
@@ -975,7 +1043,11 @@
           <t>谁来坐一下乌鸦董，</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“谁来坐一下乌鸦董”体现出老师发起了一个开展课堂活动的指令，“谁来”体现出老师邀请一位学生参与活动。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且未明确具体活动内容，符合“个体未知”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体未知”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1002,7 +1074,11 @@
           <t>好，你来小乌鸦，猴哥猴哥，哎，小乌鸦你等等啊，你为什么要连喊两声？还连喊不呀？我觉得呃我如果我喊，</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师的表述较为混乱和不清晰，没有明确发起一个具有明确特征的课堂活动指令，无法判断学生接下来要进行的具体课堂活动。
@@ -1010,7 +1086,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1029,7 +1105,11 @@
           <t>猴哥给我听听猴哥猴哥，哎，猴哥听见了来，我们学着他的样子，小乌鸦们叫两声猴哥哦，猴哥听见了。好，</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr"/>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>学生齐读</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“我们学着他的样子，小乌鸦们叫两声猴哥哦，猴哥听见了”体现出老师发起了一个开展课堂活动的指令。首先，“我们学着他的样子”中的“我们”体现出这个课堂活动是由全体学生共同参与的。进一步地，“小乌鸦们叫两声猴哥”体现出老师要求学生通过模仿叫声来开展活动，这种模仿通常是整齐划一地进行。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且整齐划一地开展的活动，符合“学生齐读”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生齐读”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1042,7 +1122,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1061,7 +1141,11 @@
           <t>你说就是用于那些种田的谚谚语啊，他们不是长期的在农田里劳动吗？他们把长期劳动的经验浓缩成简单一幅画。这里的农业是什么，武姓思？对礼武姓思是什么意思啊？</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr"/>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“武姓思？对礼武姓思是什么意思啊？”体现出老师发起了一个开展课堂活动的指令。首先，老师没有明确指出具体由哪位同学回答，而是向全体学生提问。进一步地，提问的内容是要求学生思考并回答词语的意思，思考活动是个体的大脑活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1088,7 +1172,11 @@
           <t>农小乌鸦啊。对的，猴哥说了一句，农好，接着说下去，梨树要等五年才能，结果你有这个耐心吗？</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr"/>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师要求学生接着讲述故事，没有明确指出是一位学生还是全体学生，也没有说明具体的课堂活动形式。综合上述整段话的分析过程，这个课堂活动是由学生参与、但无法判定是个体还是全体，也无法判定具体的课堂活动，符合“集体未知”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“集体未知”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1120,7 +1208,11 @@
           <t>说明你怎么样啊？就是问猴哥，你你能种梨树吗？</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师的表述没有明确体现出要开展某种特定课堂活动的指令，也没有提供关于活动形式、参与人员等明确信息。
@@ -1152,7 +1244,11 @@
           <t>是不是啊？你看这里又来一问，语气就更强烈真棒。那这小朋标再来说说全圈圈后跟啊，你来欢迎陈一坤猴哥猴哥，你怎么种梨树呢？</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr"/>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“那这小朋标再来说说全圈圈后跟啊，你来欢迎陈一坤”体现出老师发起了一个开展课堂活动的指令，邀请一位学生开展活动，“陈一坤”可能是被邀请学生的名字。进一步地，“再来说说”体现出该学生被要求用话语来表达自己的见解。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1165,7 +1261,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
@@ -1184,7 +1280,11 @@
           <t>真好好来加上前面这一段，</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr"/>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：这段话语无法明确体现出老师发起了任何课堂活动的指令，也没有相关的特征短语或特征短句来推断出具体的课堂活动类别。
@@ -1216,7 +1316,11 @@
           <t>好，梁振轩正，当你出现错的时候，出弯弯对，</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr"/>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：这段话语不完整且含义不明，没有体现出老师发起开展课堂活动的指令，也无法判断出任何课堂活动的相关信息。
@@ -1248,7 +1352,11 @@
           <t>啊啊，肯定有想法了，是不是呀？哎好，那一下再来试试。这只香味真不错，真是一只热情的小乌好，你来，正当梨树成果的时候，一只乌鸦哇哇，</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr"/>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“好，你来”体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展活动。“正当梨树成果的时候，一只乌鸦哇哇”没有明确说明具体的活动内容，但结合“你来”可推测可能是让该学生进行与朗读或发言相关的活动。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、但具体活动内容不明确，符合“个体未知”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体未知”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1275,7 +1383,11 @@
           <t>嗯，还有本书我查出来好不好？把书翻到，四十七页，找到之后，把那个自己读一读，</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr"/>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“把书翻到，Seventeen 页，找到之后，把那个自己读一读”体现出老师发起了一个开展课堂活动的指令。首先，“把书翻到”体现出老师要求全体学生共同参与翻书的动作。进一步地，“自己读一读”体现出老师要求每个学生独自进行阅读的活动。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1288,7 +1400,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1307,7 +1419,11 @@
           <t>来你来说还有喜鹊和杜鹃。嗯，喜鹊和杜鹃。好，你来读读喜鹊是怎么对猴子说的，正当技术存活的时候，</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr"/>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“好，你来读读喜鹊是怎么对猴子说的”体现出老师发起了一个开展课堂活动的指令，邀请一位学生进行朗读。“你来读读”体现出该学生被要求朗读相关内容。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种朗读活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1334,7 +1450,11 @@
           <t>好，你呃，我请来你来正当迅树成活的时候，</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>个体未知</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“好，你呃，我请来你来正当迅树成活的时候”体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展活动，但没有明确说明具体的活动内容。综合上述整段话的分析过程，这个课堂活动是由一个学生参与、且内容未知，符合“个体未知”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体未知”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1342,7 +1462,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32">
@@ -1361,7 +1481,11 @@
           <t>读这样子，我请女孩子来来大家的读班读书本，正当杏树成活的时候，</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr"/>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>学生齐读</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“我请女孩子来来大家的读班读书本，正当杏树成活的时候”体现出老师发起了一个开展课堂活动的指令。首先，“女孩子”没有“一个”等量词修饰，指女孩子这个群体。“大家的读班读书本”体现出老师让女孩子群体通过齐读的方式读书本内容。综合上述整段话的分析过程，这个课堂活动是由全体女同学集体参与、且整齐划一地开展的朗读活动，符合“学生齐读”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生齐读”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1374,7 +1498,7 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33">
@@ -1393,7 +1517,11 @@
           <t>好，接下来还有哪只鸟来劝猴子了。嗯，这个森林里太热闹了，是不是来薛子浩，你来说说，</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr"/>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“薛子浩，你来说说”体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展活动，“薛子浩”可能是被邀请学生的名字。进一步地，“你来说说”体现出该学生被要求用话语来描述自己的见解。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1406,7 +1534,7 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1425,7 +1553,11 @@
           <t>好，还起第三行长数乘我的时候，</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr"/>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：这段话语表述较为模糊，没有明确体现出任何课堂活动的特征或指令。
@@ -1452,7 +1584,11 @@
           <t>好，这课要请男孩子来做杜鹃，好不好？把这个话来读一读啊，正当桃树成活的时候，预备起正当桃树成活的时候，</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>学生齐读</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“好，这课要请男孩子来做杜鹃“体现出老师发起了一个开展课堂活动的指令，其中，“男孩子”并没有“一个”等量词来修饰，因此这里的“男孩子”指男孩子这个群体，而非个别学生。“来做杜鹃”体现了老师要求男孩子这个群体扮演杜鹃这个角色。进一步地，“把这个话来读一读”中的“读一读”体现出老师让男孩子通过扮演杜鹃来朗诵杜鹃的话。然后，“预备起”这个词体现出这个朗读活动是整齐划一地开展。综合上述整段话语的分析过程，这个课堂活动是由全体男同学集体参与、且整齐划一地开展的朗读活动，符合“学生齐读”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生齐读”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1465,7 +1601,7 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36">
@@ -1484,7 +1620,11 @@
           <t>乌鸦喜鹊杜鹃都来劝猴子了，他们劝猴子说的话的时候又有什么相似之处吗，找找规律看，你找到什么，是每每个中午说话的时候都会有过山车，</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr"/>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“乌鸦喜鹊杜鹃都来劝猴子了，他们劝猴子说的话的时候又有什么相似之处吗，找找规律看，你找到什么”体现出老师发起了一个开展课堂活动的指令。首先，“你找到什么”中的“你”泛指全体学生。进一步地，“找找规律看”体现出老师要求学生共同思考并寻找相似之处，思考活动是个体的大脑活动，无法集体整齐划一地开展，只能由每一个学生独自完成。综合上述整段话的分析过程，这个课堂活动是由全体学生参与、且每一个学生独自完成的活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1492,7 +1632,7 @@
         </is>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37">
@@ -1511,7 +1651,11 @@
           <t>乌鸦喜鹊杜鹃杜鹃对很好，</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是对学生的回答进行了肯定和评价，并没有发起开展课堂活动的指令。
@@ -1538,7 +1682,11 @@
           <t>还有三楼上去来。他们每次，</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr"/>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：这段待分析文本内容不完整且语义不明，无法从中提取出与课堂活动相关的有效信息。
@@ -1570,7 +1718,11 @@
           <t>喜鹊说你怎么种，杏树呢？杜鹃说，好一哥，你怎么种好树？对，意思都在说你不可以种的杏树，你不可以种，好，然后再来一句noyes来。还有你说就是他，</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr"/>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是在对文本内容进行讲解和陈述，没有发起任何明确的课堂活动指令，也没有体现出与特定课堂活动相关的特征短语或短句。
@@ -1602,7 +1754,11 @@
           <t>对不对？来，还有他说你不着急，就是在说你有这个耐心吗？</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr"/>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“来”字体现出老师发起了一个开展课堂活动的指令，但后续的内容没有明确指出具体的课堂活动内容和参与方式。综合上述整段话的分析过程，这个课堂活动是由学生参与、但无法判定具体的课堂活动，符合“集体未知”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“集体未知”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1634,7 +1790,11 @@
           <t>最后一句你有，只猫猫，然后再找第四喜喜鹊对猴子说的。最后一句话是，你没找到，</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是在陈述文本中的内容，并没有发起一个开展课堂活动的指令。综合上述整段话分析过程，这段话只是老师在讲解文本相关内容，没有提到具体的课堂活动安排。所以，在老师说完这段话后，无法识别出任何预设的课堂活动类别。
@@ -1666,7 +1826,11 @@
           <t>不都在说猴子怎么样？不能等不急？都在说猴子了，会着急，是不是啊？这个猴子越来越着急。是的啊，在这里他有三个不同的想法很好。你说还有什么，嗯三个不一样，</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr"/>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师一直在与学生进行交流和互动，引导学生思考猴子的想法，但没有明确发起具体的课堂活动指令，没有体现出学生具体的课堂活动方式和内容。
@@ -1674,7 +1838,7 @@
         </is>
       </c>
       <c r="F42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1693,7 +1857,11 @@
           <t>这就是我们中国语言的神秘之处啊，我们与中国语言文字的奥秘性。好，你说你有什么补充他他还有每个每个渣渣呀这种的后别都在一个地啊，</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr"/>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“好，你说你有什么补充”体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展活动。结合“有什么补充”可知，该学生被要求用话语来补充相关内容。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1706,7 +1874,7 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44">
@@ -1725,7 +1893,11 @@
           <t>好，你来说就是他们出现的时候都都是他就是他们成活的时候，</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr"/>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“好，你来说”体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展活动。结合上下文，“你来说”中的“说”体现出该学生被要求用话语来描述自己的见解。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1733,7 +1905,7 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45">
@@ -1752,7 +1924,11 @@
           <t>是不是觉得很好讲？是的好的，自己选一个角色，你可以选吴雅，可以选喜鹊，也可以选杜鹃，把他的这段话自己在下面练讲，等一会儿像高婷一样站起来啊，很熟练的啊，很有感情的告诉给大家，</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr"/>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“自己选一个角色，你可以选吴雅，可以选喜鹊，也可以选杜鹃，把他的这段话自己在下面练讲”体现出老师发起了一个开展课堂活动的指令，要求学生独自选择角色并练习讲话。“等一会儿像高婷一样站起来啊，很熟练的啊，很有感情的告诉给大家”体现出老师要求学生在练习之后站起来向大家展示。综合上述整段话的分析过程，这个课堂活动先由学生个体独自练习，然后个体向大家展示，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1779,7 +1955,11 @@
           <t>你的同桌好朋友听啊。哎如果你是讲这样的话的，你讲给同桌听同桌。如果讲喜趣的话呢，那要反过来讲，</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr"/>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>小组学习</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“你的同桌好朋友听啊。哎如果你是讲这样的话的，你讲给同桌听同桌。”体现出老师发起了一个开展课堂活动的指令。首先，“你的同桌好朋友”和“你讲给同桌听同桌”体现出这个课堂活动是由学生两两一组进行的。进一步地，“讲这样的话”体现出老师要求学生之间互相讲述相关内容。综合上述整段话的分析过程，这个课堂活动是学生以两两一组的形式通过互相讲述来达到交流目的，符合“小组学习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“小组学习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1787,7 +1967,7 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1806,7 +1986,11 @@
           <t>等一会下门再出去，啊，是不是长得差不多了，没有小乌鸦来试试看没有啊，那等一会儿吧，我们毕竟有三十八个同学在等你们两个，我们四个人都没有好，</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr"/>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“没有小乌鸦来试试看没有啊，那等一会儿吧”体现出老师发起了一个开展课堂活动的指令，邀请小乌鸦（可能是学生）来进行尝试，但因为某些原因需要等待一会儿。综合上述整段话的分析过程，这个课堂活动是由一个学生执行的活动，但具体内容不明确，符合“个体未知”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体未知”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1833,7 +2017,11 @@
           <t>哎，你们很好尊重其他同学啊。好，谁来试试这样子啊，我们先请小乌鸦，好吧，谁是刚刚练了小乌鸦的话，好，他是谁，</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“谁来试试这样子啊，我们先请小乌鸦，好吧，谁是刚刚练了小乌鸦的话”体现出老师发起了一个开展课堂活动的指令，邀请一位学生开展活动。“谁来试试”“我们先请”体现出老师在挑选学生参与，“练了小乌鸦的话”表明学生需要用话语来表达。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1860,7 +2048,11 @@
           <t>是不是可以表演一些动作表情行都可以出来啊。好，你来试试。正当一树成的时候哦，我们在讲乌鸦，等一儿请你好不好？乌鸦二十五页，好，正高一处成。你这样吧，你上来吧，好不好？我上来讲好不好？来掌声鼓励一起，</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr"/>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“好，你来试试”“你上来吧”体现出老师发起了开展课堂活动的指令，邀请特定的学生参与活动，没有明确说明活动的具体内容。综合上述整段话的分析过程，这个课堂活动是由一个学生参与、且内容未知，符合“个体未知”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体未知”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1892,7 +2084,11 @@
           <t>刚刚一开始说啊，已已经很好了了，能够把故事讲用一个。第二个能加上动作。来来第三个能不能表演的更好。哎，加上表情啊，你来试试，你是读乌鸦的话是吗？来上来小乌鸦，有请小乌鸦，</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr"/>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“你来试试，你是读乌鸦的话是吗？来上来小乌鸦，有请小乌鸦”体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展活动。进一步地，“加上动作”“加上表情”体现出该学生被要求用带有动作和表情的方式来表现，进而展示自己的表演能力。这个课堂活动由一个学生执行、向全班同学分享自己的表演，符合“个体展示”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1900,7 +2096,7 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51">
@@ -1919,7 +2115,11 @@
           <t>三只小乌鸭都非常棒，你们三个小朋友都可以参加。好，接下来请大演喜频的小朋友。谁来讲讲喜的话，好，恭请，</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr"/>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“谁来讲讲喜的话，好，恭请”体现出老师发起了一个开展课堂活动的指令，邀请一位学生用话语来讲述相关内容。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -1946,7 +2146,11 @@
           <t>啊。下面的小听众我也要啊啊人家上面表演的。那么啊认真。那你下面面要尊重这些小演员啊，这张就是，</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr"/>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师主要在强调对表演的尊重，没有明确发出开展课堂活动的指令，也未提及具体的课堂活动形式和内容。
@@ -1978,7 +2182,11 @@
           <t>我来找一下你讲话的时，这样不好。哎，哪怕他做的不好，你也不可以在下面窃窃私语，这是对别人的尊重，你最起码得耐心的听别人讲完他读错一个字或者漏错一个字，现在都没关系。那我请你来，你还不如，</t>
         </is>
       </c>
-      <c r="D53" t="inlineStr"/>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师主要在强调课堂纪律和行为规范，没有明确发起一个具体的课堂活动指令，也没有体现出任何课堂活动的相关内容。
@@ -2005,7 +2213,11 @@
           <t>来，我要表表扬，能够举手，勇敢上台表扬的小目啊。好，开始，正当杜鹃，</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“能够举手，勇敢上台表扬的小目啊”体现出老师发起了一个开展课堂活动的指令，邀请一位学生上台。进一步地，“好，开始”体现出这个课堂活动即将开始。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、向全班同学展示的活动，符合“个体展示”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -2013,7 +2225,7 @@
         </is>
       </c>
       <c r="F54" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2032,7 +2244,11 @@
           <t>方老师给你个提示啊，那正当杏我再讲喜鹊，我们现在叫区，正当豪生当成的，</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr"/>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师的表述较为混乱且不清晰，无法从中明确判断出老师发起了具体的课堂活动指令，也无法判断出活动的类型和参与方式。
@@ -2059,7 +2275,11 @@
           <t>啊？我再请刚刚下面再坐下动作讲话，你来，</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr"/>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“你来”体现出老师发起了一个开展课堂活动的指令，邀请一名学生参与活动，但没有说明活动的具体内容和形式。综合上述整段话的分析过程，这个课堂活动是由一名学生参与、且内容和参与形式都不知道，符合“个体未知”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体未知”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -2086,7 +2306,11 @@
           <t>啊现在现练离手了，你不想看来你来，隔壁脸，</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr"/>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：这段话语含义不清晰，无法明确判断老师的意图和即将开展的课堂活动类别。
@@ -2118,7 +2342,11 @@
           <t>请坐，要批评那段话，三十秒的话都到我这来，一定要积极思考，</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr"/>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>独立练习</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“要批评那段话，三十秒的话都到我这来，一定要积极思考”体现出老师发起了一个开展课堂活动的指令。首先，“三十秒的话都到我这来”体现出老师要求学生以个体的形式来到老师这里，且需要思考相关内容。综合上述整段话的分析过程，这个课堂活动是由学生个体参与、且是一种思考活动，符合“独立练习”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“独立练习”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -2131,7 +2359,7 @@
         </is>
       </c>
       <c r="F58" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2150,7 +2378,11 @@
           <t>不是自己坐在那里，还有不是在那里随便想讲话就讲去你坐端正，</t>
         </is>
       </c>
-      <c r="D59" t="inlineStr"/>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师主要是在对学生的行为进行规范和要求，并没有发起任何具体的课堂活动指令。
@@ -2182,7 +2414,11 @@
           <t>快点破产做动作。对啊，</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr"/>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：这段老师话语的含义不明确，没有明确体现出开展课堂活动的指令和相关特征，无法判断课堂活动的类别和状态。
@@ -2209,7 +2445,11 @@
           <t>每个同学都认真举手，好，往下面来你是读喜鹊的话啊，喜鹊小喜鹊停来上来来表演啊，忘记了，可以稍微看一下啊，正当杏树成活的时候，</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“每个同学都认真举手”体现出老师对全体同学的要求，但没有明确后续的具体课堂活动。“好，往下面来你是读喜鹊的话啊，喜鹊小喜鹊停来上来来表演啊”体现出老师发起了一个开展课堂活动的指令，邀请一位同学上台表演读喜鹊的话，符合“个体展示”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -2217,7 +2457,7 @@
         </is>
       </c>
       <c r="F61" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2236,7 +2476,11 @@
           <t>而且他刚刚坐在下面是认真听的啊，最起码比上面不敢去说小票有勇敢这一点我就要勇敢来。你是喜鹊来，喜鹊没有。刚刚乌鸦讲的好，对我要请只非常棒的小喜鹊，正当杏树成活的时候，</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr"/>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“你是喜鹊来，喜鹊没有。刚刚乌鸦讲的好，对我要请只非常棒的小喜鹊”体现出老师发起了一个开展课堂活动的指令，邀请一位学生扮演喜鹊。进一步地，“正当杏树成活的时候”体现出老师可能要求该学生结合特定情境进行表演或发言。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且向全班同学分享自己表演或发言的活动，符合“个体展示”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -2268,7 +2512,11 @@
           <t>但是呢小故事就是背书可以加上动作。像刚刚几只小姑娘扮演的非常好啊。好，接下来请来演演小杜鹃，好的，你来，你实在忘记了，可以看一下提示啊。正当桃树成活的时候，</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr"/>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>分析过程：在这段话语中，“好，接下来请来演演小杜鹃，好的，你来”体现出老师发起了一个开展课堂活动的指令，邀请一个学生来扮演小杜鹃。“你实在忘记了，可以看一下提示啊”体现出老师对该学生的提示。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、向全班同学展示自己表演的活动，符合“个体展示”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -2300,7 +2548,11 @@
           <t>不着急，你不着急。对啊，请坐好掌声鼓励一下，小杜鹃有点严肃啊。不会你们啊，好歌好歌啊，着急一点好不好？来谁再来演一演，你来罗若涵，</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr"/>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>个体展示</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“来谁再来演一演，你来罗若涵”体现出老师发起了一个开展课堂活动的指令，邀请一位学生开展活动，“罗若涵”可能是被邀请学生的名字。进一步地，“演一演”体现出该学生被要求进行表演。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、向全班同学分享自己的表演技能的活动，符合“个体展示”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体展示”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -2308,7 +2560,7 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2327,7 +2579,11 @@
           <t>很好好，这福利，听了三只鸟儿的话，猴子可有想法了。投资是怎么想的，听了乌鸦的话，猴子一想，对五年海棠黄荷等于几听了喜鹊的话，</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr"/>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师主要是在讲述内容，没有发起明确的课堂活动指令，也没有体现出任何与特定课堂活动相关的特征。
@@ -2359,7 +2615,11 @@
           <t>现在呀我们拿起书本，把这个故事啊从头到尾再来背一背，用上。刚刚老师教你们的，咱们去把故事啊讲流利讲通顺，然后讲的有感情啊，猴子种了一棵梨树苗，预备起猴子，</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr"/>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>学生齐读</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“现在呀我们拿起书本，把这个故事啊从头到尾再来背一背”体现出老师发起了一个开展课堂活动的指令，“我们”表明这个课堂活动是由全体学生共同参与的。进一步地，“背一背”体现出老师让学生背诵故事。“预备起猴子”这个词体现出这个背诵活动是整齐划一地开展。综合上述整段话的分析过程，这个课堂活动是由全体学生集体参与、且整齐划一地开展的背诵活动，符合“学生齐读”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生齐读”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -2372,7 +2632,7 @@
         </is>
       </c>
       <c r="F66" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2391,7 +2651,11 @@
           <t>猴子呀他一开始很勤劳啊，还是种了一棵梨树。可是当乌鸦来劝说它的时候，它就拔掉了。改种了杏树。喜鹊来劝他了，杏树，改种了桃树。</t>
         </is>
       </c>
-      <c r="D67" t="inlineStr"/>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师只是在讲述一个故事，没有发起明确的课堂活动指令，也没有提及学生需要进行的具体课堂活动内容。所以，在老师说完这段话后，无法识别出任何预设的课堂活动类别。
@@ -2423,7 +2687,11 @@
           <t>没有自己的想，是不是啊，到最后什么都没有啊。那么这只小猴呢，也挺可怜的。你想对他说什么，想对他说说汤子晨，你说，如果你，</t>
         </is>
       </c>
-      <c r="D68" t="inlineStr"/>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>个体发言</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“你想对他说什么，想对他说说汤子晨，你说”体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展活动，“汤子晨”可能是被邀请学生的名字。进一步地，“你说”体现出该学生被要求用话语来回答老师的问题。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -2436,7 +2704,7 @@
         </is>
       </c>
       <c r="F68" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2455,7 +2723,11 @@
           <t>你有什么想对孩子说什么？我想对你说你太犯脱，</t>
         </is>
       </c>
-      <c r="D69" t="inlineStr"/>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，老师的表述逻辑混乱、不清晰，没有明确发起任何开展课堂活动的指令。
@@ -2482,7 +2754,11 @@
           <t>对，好的，来你来说，小猴子，我想对你说，你，</t>
         </is>
       </c>
-      <c r="D70" t="inlineStr"/>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“来你来说，小猴子，我想对你说”体现出老师发起了一个开展课堂活动的指令，邀请一个学生开展活动，结合“你来说”可知，该学生被要求用话语来表达自己的见解。综合上述整段话的分析过程，这个课堂活动是由一个学生执行、且是一种口述活动，符合“个体发言”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -2509,7 +2785,11 @@
           <t>而且再说你咦那个处于被痛的状态，</t>
         </is>
       </c>
-      <c r="D71" t="inlineStr"/>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，无法明确老师发起了任何具体的课堂活动指令，也没有与课堂活动相关的特征短语或特征短句。
@@ -2536,7 +2816,11 @@
           <t>他跪在地上旁边呢有个人拿着拐杖在打他的小屁股，对不对？就是叫他知错就改对的啊，所以这个改字我们一起来写一写来小手笔伸出来一横折，预备起一横折，二横三十五，</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr"/>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>学生齐写</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“这个改字我们一起来写一写”体现出老师发起了一个开展课堂活动的指令。首先，“我们一起来写一写”中的“我们”体现出这个课堂活动是由学生集体参与；“写一写”体现出该活动是一个书写活动；“预备起”这个词体现出这个书写活动要求学生整齐划一地开展。 综合上述整段话的分析过程，这个课堂活动是老师邀请学生集体参与、且整齐划一地开展的书写活动，符合“学生齐写”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“学生齐写”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
@@ -2549,7 +2833,7 @@
         </is>
       </c>
       <c r="F72" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73">
@@ -2568,7 +2852,11 @@
           <t>李春月改正改正好的，来，你来知错能改，知错能改，你说，改革改革啊，来，你说改变改变。好啊。好，我们学下一个字，洗xpyy预备起xpy，洗上结构，</t>
         </is>
       </c>
-      <c r="D73" t="inlineStr"/>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>学生齐写</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t xml:space="preserve">分析过程：在这段话语中，“李春月改正改正好的，来，你来知错能改，知错能改，你说，改革改革啊，来，你说改变改变。”体现出老师发起了一个开展课堂活动的指令，邀请一位学生用话语来回答问题，“你说”体现出老师要求学生进行口头表达。“好，我们学下一个字，洗xpyy预备起xpy，洗上结构”体现出老师发起了一个集体参与的课堂活动，“预备起”体现出这个活动是整齐划一地开展。综合上述整段话的分析过程，这个课堂活动先是由一个学生执行、且是一种口述活动，符合“个体发言”的特征；接着是全体学生参与、且整齐划一地开展的活动，符合“学生齐读”的特征。所以，在老师说完这段话后，预测的课堂活动类别是“个体发言、学生齐读”，因为执行该课堂活动的指令刚刚发出，因此课堂活动的进行状态为“开始”。
